--- a/data/trans_orig/P24E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E615429C-61A4-48B3-BF25-E0B505FFACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D2A5CE-7155-40E1-983D-775DCD9794C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCF97482-1B98-4C8D-AA85-8530EE98C3DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA9050E-2700-4D68-9FEE-FB6425D9DCC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -169,82 +169,82 @@
     <t>30,26%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>53,33%</t>
   </si>
   <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -337,1644 +337,1647 @@
     <t>28,16%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>59,99%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>43,63%</t>
   </si>
   <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>54,79%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
     <t>45,59%</t>
   </si>
   <si>
@@ -2060,9 +2063,6 @@
   </si>
   <si>
     <t>56,62%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
   </si>
   <si>
     <t>15,5%</t>
@@ -2495,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFBB818-534C-4EDF-BB6E-98A7B3871471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E993ED-1BC9-4367-9B50-17C9E6286F54}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3375,7 +3375,7 @@
         <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3509,13 @@
         <v>7005</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3524,13 +3524,13 @@
         <v>20831</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3545,13 @@
         <v>2654</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3560,13 +3560,13 @@
         <v>1932</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3575,13 +3575,13 @@
         <v>4586</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3649,13 +3649,13 @@
         <v>14687</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3664,13 +3664,13 @@
         <v>10238</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3679,13 +3679,13 @@
         <v>24925</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3700,13 @@
         <v>20759</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3715,13 +3715,13 @@
         <v>9677</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3730,13 +3730,13 @@
         <v>30436</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3751,13 @@
         <v>7184</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3766,13 +3766,13 @@
         <v>1030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3781,13 +3781,13 @@
         <v>8215</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3843,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3855,13 +3855,13 @@
         <v>22447</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -3870,13 +3870,13 @@
         <v>25348</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -3885,13 +3885,13 @@
         <v>47795</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3906,13 @@
         <v>47327</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3921,13 +3921,13 @@
         <v>36961</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -3936,13 +3936,13 @@
         <v>84288</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3957,13 @@
         <v>10538</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3972,13 +3972,13 @@
         <v>6958</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3987,13 +3987,13 @@
         <v>17496</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4049,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4061,13 +4061,13 @@
         <v>33715</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -4076,13 +4076,13 @@
         <v>20934</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4091,13 +4091,13 @@
         <v>54649</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4112,13 @@
         <v>42885</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>28</v>
@@ -4127,13 +4127,13 @@
         <v>28300</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>68</v>
@@ -4142,13 +4142,13 @@
         <v>71185</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4163,13 @@
         <v>13145</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4178,13 +4178,13 @@
         <v>7665</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -4193,13 +4193,13 @@
         <v>20810</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,16 +4264,16 @@
         <v>129</v>
       </c>
       <c r="D36" s="7">
-        <v>133766</v>
+        <v>133767</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>104</v>
@@ -4282,13 +4282,13 @@
         <v>109496</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>233</v>
@@ -4297,13 +4297,13 @@
         <v>243263</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,16 +4315,16 @@
         <v>211</v>
       </c>
       <c r="D37" s="7">
-        <v>218349</v>
+        <v>218350</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>141</v>
@@ -4333,13 +4333,13 @@
         <v>143085</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>352</v>
@@ -4348,13 +4348,13 @@
         <v>361434</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,16 +4366,16 @@
         <v>57</v>
       </c>
       <c r="D38" s="7">
-        <v>57212</v>
+        <v>57213</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -4384,13 +4384,13 @@
         <v>43421</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>99</v>
@@ -4399,13 +4399,13 @@
         <v>100634</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,7 +4417,7 @@
         <v>397</v>
       </c>
       <c r="D39" s="7">
-        <v>409328</v>
+        <v>409329</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4485,7 +4485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74AE4D8-E85C-445B-92A5-0C1561FAE341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B27269-BE85-4F0B-A2F7-1FDA91C6D45F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4502,7 +4502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4607,39 +4607,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,39 +4652,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,39 +4697,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,39 +4742,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4791,13 @@
         <v>18822</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4806,13 +4806,13 @@
         <v>17698</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -4821,13 +4821,13 @@
         <v>36521</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4842,13 @@
         <v>67899</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -4857,13 +4857,13 @@
         <v>38263</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -4872,13 +4872,13 @@
         <v>106162</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4893,13 @@
         <v>18009</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4911,10 +4911,10 @@
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4923,13 +4923,13 @@
         <v>28042</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4997,13 @@
         <v>30640</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -5012,13 +5012,13 @@
         <v>32207</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -5027,13 +5027,13 @@
         <v>62847</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5048,13 @@
         <v>16241</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5063,13 +5063,13 @@
         <v>10425</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -5078,13 +5078,13 @@
         <v>26665</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5099,13 @@
         <v>2986</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5114,13 +5114,13 @@
         <v>4983</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5129,13 +5129,13 @@
         <v>7969</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5511,13 @@
         <v>10272</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5526,13 +5526,13 @@
         <v>6955</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5541,13 +5541,13 @@
         <v>17228</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,7 +5603,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5615,13 +5615,13 @@
         <v>23921</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5630,13 +5630,13 @@
         <v>18402</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5645,13 +5645,13 @@
         <v>42323</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5666,13 @@
         <v>17111</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5681,13 +5681,13 @@
         <v>13502</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5696,13 +5696,13 @@
         <v>30614</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5809,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6111,10 +6111,10 @@
         <v>432</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6129,13 @@
         <v>7336</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6144,13 +6144,13 @@
         <v>4041</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6159,13 +6159,13 @@
         <v>11377</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6233,13 @@
         <v>240118</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -6248,13 +6248,13 @@
         <v>222549</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -6263,13 +6263,13 @@
         <v>462668</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6284,13 @@
         <v>298819</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H37" s="7">
         <v>184</v>
@@ -6299,10 +6299,10 @@
         <v>202073</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>456</v>
@@ -6314,13 +6314,13 @@
         <v>500893</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6335,13 @@
         <v>81334</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -6350,13 +6350,13 @@
         <v>64361</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M38" s="7">
         <v>128</v>
@@ -6365,13 +6365,13 @@
         <v>145695</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,7 +6427,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FD62C9-6512-4B49-8C03-CBF02F7D5C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE42F45E-17A4-4713-A3E4-2BEFD5E725E2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6468,7 +6468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6575,13 +6575,13 @@
         <v>20774</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -6590,13 +6590,13 @@
         <v>16185</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6605,13 +6605,13 @@
         <v>36959</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6626,13 @@
         <v>34028</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6641,13 +6641,13 @@
         <v>22847</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6656,13 +6656,13 @@
         <v>56876</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6677,13 @@
         <v>10853</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6692,13 +6692,13 @@
         <v>2851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>493</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6707,13 +6707,13 @@
         <v>13704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>496</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6781,13 @@
         <v>4401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6796,13 +6796,13 @@
         <v>7305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -6811,13 +6811,13 @@
         <v>11706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6832,13 @@
         <v>30443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>502</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -6847,13 +6847,13 @@
         <v>19545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -6862,13 +6862,13 @@
         <v>49988</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6883,13 @@
         <v>5121</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6898,13 +6898,13 @@
         <v>10476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6913,13 +6913,13 @@
         <v>15597</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7068,7 @@
         <v>37346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>531</v>
@@ -7107,10 +7107,10 @@
         <v>536</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7119,13 +7119,13 @@
         <v>15353</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7193,13 @@
         <v>36278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7208,13 +7208,13 @@
         <v>20681</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -7223,13 +7223,13 @@
         <v>56959</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7244,13 @@
         <v>35443</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7259,7 +7259,7 @@
         <v>21219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>428</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>553</v>
@@ -7274,13 +7274,13 @@
         <v>56662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7295,13 @@
         <v>16651</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>558</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7310,13 +7310,13 @@
         <v>13860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7325,13 +7325,13 @@
         <v>30512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7399,13 @@
         <v>5377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7414,13 +7414,13 @@
         <v>2650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7429,13 +7429,13 @@
         <v>8027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7450,13 @@
         <v>29684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7465,13 +7465,13 @@
         <v>21091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -7480,13 +7480,13 @@
         <v>50774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>5246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7516,13 +7516,13 @@
         <v>6220</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -7534,10 +7534,10 @@
         <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7593,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7605,7 +7605,7 @@
         <v>4855</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>256</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>588</v>
@@ -7635,13 +7635,13 @@
         <v>10429</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>593</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7656,13 @@
         <v>27177</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7671,13 +7671,13 @@
         <v>13990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7686,13 +7686,13 @@
         <v>41167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7707,13 @@
         <v>8915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7722,13 +7722,13 @@
         <v>2994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -7737,10 +7737,10 @@
         <v>11909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>612</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7814,10 +7814,10 @@
         <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -7841,13 +7841,13 @@
         <v>42755</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7862,13 @@
         <v>33243</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -7877,13 +7877,13 @@
         <v>30344</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -7892,13 +7892,13 @@
         <v>63587</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,10 +7916,10 @@
         <v>589</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7928,13 +7928,13 @@
         <v>6849</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -7943,13 +7943,13 @@
         <v>24386</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,7 +8005,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8017,13 +8017,13 @@
         <v>31082</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -8038,7 +8038,7 @@
         <v>638</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>639</v>
+        <v>114</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -8047,10 +8047,10 @@
         <v>65282</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>641</v>
@@ -8083,13 +8083,13 @@
         <v>59164</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>273</v>
+        <v>645</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -8098,13 +8098,13 @@
         <v>123600</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8119,13 @@
         <v>23751</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -8134,13 +8134,13 @@
         <v>14623</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M34" s="7">
         <v>36</v>
@@ -8149,13 +8149,13 @@
         <v>38374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8223,13 @@
         <v>131182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -8238,10 +8238,10 @@
         <v>123712</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>403</v>
@@ -8253,13 +8253,13 @@
         <v>254894</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,13 +8274,13 @@
         <v>272889</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
@@ -8289,13 +8289,13 @@
         <v>207111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M37" s="7">
         <v>455</v>
@@ -8304,13 +8304,13 @@
         <v>480001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
         <v>94770</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>674</v>
+        <v>303</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>675</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D2A5CE-7155-40E1-983D-775DCD9794C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC29BF5-CBFF-46CB-81F6-D2590277A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA9050E-2700-4D68-9FEE-FB6425D9DCC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44AEDDDD-056F-4D48-8341-BE1B288D4B92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="688">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>28,96%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>46,08%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
   </si>
   <si>
     <t>Entre 5 y 1 año</t>
@@ -106,28 +106,28 @@
     <t>52,4%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>46,78%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>Hace más de 5 años</t>
@@ -136,10 +136,10 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>22,59%</t>
@@ -148,13 +148,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>63,05%</t>
+    <t>58,65%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>8,9%</t>
+    <t>8,62%</t>
   </si>
   <si>
     <t>35,72%</t>
@@ -169,1921 +169,1939 @@
     <t>30,26%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>53,33%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>7,83%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
   </si>
   <si>
     <t>44,07%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2015 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,56%</t>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -2495,7 +2513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E993ED-1BC9-4367-9B50-17C9E6286F54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1225E85-C121-44C9-9968-E87C8E2623CB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3375,7 +3393,7 @@
         <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3449,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3443,13 +3461,13 @@
         <v>12140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3458,13 +3476,13 @@
         <v>13270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3473,10 +3491,10 @@
         <v>25409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>133</v>
@@ -3509,13 +3527,13 @@
         <v>7005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -3524,13 +3542,13 @@
         <v>20831</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3563,13 @@
         <v>2654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3560,13 +3578,13 @@
         <v>1932</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3575,13 +3593,13 @@
         <v>4586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3655,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3649,13 +3667,13 @@
         <v>14687</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3664,13 +3682,13 @@
         <v>10238</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3679,13 +3697,13 @@
         <v>24925</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3718,13 @@
         <v>20759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3715,13 +3733,13 @@
         <v>9677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3730,13 +3748,13 @@
         <v>30436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3769,13 @@
         <v>7184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3766,13 +3784,13 @@
         <v>1030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3781,13 +3799,13 @@
         <v>8215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3861,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3855,7 +3873,7 @@
         <v>22447</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>179</v>
@@ -3888,10 +3906,10 @@
         <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3924,13 @@
         <v>47327</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3921,13 +3939,13 @@
         <v>36961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -3936,13 +3954,13 @@
         <v>84288</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3975,13 @@
         <v>10538</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3972,13 +3990,13 @@
         <v>6958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3987,10 +4005,10 @@
         <v>17496</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>203</v>
@@ -4076,13 +4094,13 @@
         <v>20934</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4091,13 +4109,13 @@
         <v>54649</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4130,13 @@
         <v>42885</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H33" s="7">
         <v>28</v>
@@ -4127,13 +4145,13 @@
         <v>28300</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M33" s="7">
         <v>68</v>
@@ -4142,13 +4160,13 @@
         <v>71185</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4181,13 @@
         <v>13145</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4178,13 +4196,13 @@
         <v>7665</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -4193,13 +4211,13 @@
         <v>20810</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,16 +4282,16 @@
         <v>129</v>
       </c>
       <c r="D36" s="7">
-        <v>133767</v>
+        <v>133766</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>104</v>
@@ -4282,13 +4300,13 @@
         <v>109496</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>233</v>
@@ -4297,13 +4315,13 @@
         <v>243263</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4333,7 @@
         <v>211</v>
       </c>
       <c r="D37" s="7">
-        <v>218350</v>
+        <v>218349</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>240</v>
@@ -4366,7 +4384,7 @@
         <v>57</v>
       </c>
       <c r="D38" s="7">
-        <v>57213</v>
+        <v>57212</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>249</v>
@@ -4417,7 +4435,7 @@
         <v>397</v>
       </c>
       <c r="D39" s="7">
-        <v>409329</v>
+        <v>409328</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -4485,7 +4503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B27269-BE85-4F0B-A2F7-1FDA91C6D45F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A3A8F1-4D43-436E-9657-8BECFC84FEAB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4929,7 +4947,7 @@
         <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5015,13 @@
         <v>30640</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -5012,13 +5030,13 @@
         <v>32207</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -5027,13 +5045,13 @@
         <v>62847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5066,13 @@
         <v>16241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5063,13 +5081,13 @@
         <v>10425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -5078,13 +5096,13 @@
         <v>26665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5117,13 @@
         <v>2986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5114,13 +5132,13 @@
         <v>4983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5129,13 +5147,13 @@
         <v>7969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5221,13 @@
         <v>53091</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5218,13 +5236,13 @@
         <v>48064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -5233,13 +5251,13 @@
         <v>101155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5272,13 @@
         <v>64831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5269,13 +5287,13 @@
         <v>62416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -5284,13 +5302,13 @@
         <v>127247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5323,13 @@
         <v>30639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5320,13 +5338,13 @@
         <v>17692</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -5335,13 +5353,13 @@
         <v>48331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,7 +5415,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5409,13 +5427,13 @@
         <v>16404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5424,13 +5442,13 @@
         <v>13555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5439,13 +5457,13 @@
         <v>29959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5478,13 @@
         <v>22477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5475,13 +5493,13 @@
         <v>14391</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -5490,13 +5508,13 @@
         <v>36867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5529,13 @@
         <v>10272</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5526,13 +5544,13 @@
         <v>6955</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5541,13 +5559,13 @@
         <v>17228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,7 +5621,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5615,13 +5633,13 @@
         <v>23921</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5630,13 +5648,13 @@
         <v>18402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5645,13 +5663,13 @@
         <v>42323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5684,13 @@
         <v>17111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5681,13 +5699,13 @@
         <v>13502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5696,13 +5714,13 @@
         <v>30614</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5735,13 @@
         <v>4147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5732,13 +5750,13 @@
         <v>6221</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -5747,13 +5765,13 @@
         <v>10367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5827,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5821,13 +5839,13 @@
         <v>44867</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -5836,13 +5854,13 @@
         <v>45865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -5851,13 +5869,13 @@
         <v>90732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5890,13 @@
         <v>54706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -5887,13 +5905,13 @@
         <v>34160</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -5902,13 +5920,13 @@
         <v>88866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5941,13 @@
         <v>7945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5938,13 +5956,13 @@
         <v>14435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5953,13 +5971,13 @@
         <v>22381</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6045,13 @@
         <v>52373</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -6042,13 +6060,13 @@
         <v>46758</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M32" s="7">
         <v>93</v>
@@ -6057,13 +6075,13 @@
         <v>99132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6096,13 @@
         <v>55554</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6093,13 +6111,13 @@
         <v>28917</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>90</v>
+        <v>425</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M33" s="7">
         <v>76</v>
@@ -6108,13 +6126,13 @@
         <v>84471</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>432</v>
+        <v>236</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>218</v>
+        <v>427</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6147,13 @@
         <v>7336</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>434</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6144,13 +6162,13 @@
         <v>4041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>439</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6159,13 +6177,13 @@
         <v>11377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6251,13 @@
         <v>240118</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -6248,13 +6266,13 @@
         <v>222549</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -6263,13 +6281,13 @@
         <v>462668</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6302,13 @@
         <v>298819</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H37" s="7">
         <v>184</v>
@@ -6299,13 +6317,13 @@
         <v>202073</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M37" s="7">
         <v>457</v>
@@ -6314,13 +6332,13 @@
         <v>500893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>316</v>
+        <v>451</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6353,13 @@
         <v>81334</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -6350,13 +6368,13 @@
         <v>64361</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M38" s="7">
         <v>128</v>
@@ -6365,13 +6383,13 @@
         <v>145695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE42F45E-17A4-4713-A3E4-2BEFD5E725E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A2C424-6BC3-47B0-8313-E126187D0768}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6468,7 +6486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6575,13 +6593,13 @@
         <v>20774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -6590,13 +6608,13 @@
         <v>16185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6605,13 +6623,13 @@
         <v>36959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6644,13 @@
         <v>34028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6641,13 +6659,13 @@
         <v>22847</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6656,13 +6674,13 @@
         <v>56876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6695,13 @@
         <v>10853</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6692,13 +6710,13 @@
         <v>2851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>485</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6707,13 +6725,13 @@
         <v>13704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6799,13 @@
         <v>4401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6796,13 +6814,13 @@
         <v>7305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -6811,13 +6829,13 @@
         <v>11706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6850,13 @@
         <v>30443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -6847,13 +6865,13 @@
         <v>19545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>378</v>
+        <v>502</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -6862,13 +6880,13 @@
         <v>49988</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6901,13 @@
         <v>5121</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6898,10 +6916,10 @@
         <v>10476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>512</v>
@@ -7005,10 +7023,10 @@
         <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7017,13 +7035,13 @@
         <v>22777</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7056,13 @@
         <v>18435</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -7053,13 +7071,13 @@
         <v>18911</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -7068,13 +7086,13 @@
         <v>37346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>529</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7107,13 @@
         <v>6696</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7104,10 +7122,10 @@
         <v>8657</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>537</v>
@@ -7250,7 +7268,7 @@
         <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7259,10 +7277,10 @@
         <v>21219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>554</v>
@@ -7277,10 +7295,10 @@
         <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7313,13 @@
         <v>16651</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7310,13 +7328,13 @@
         <v>13860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7325,13 +7343,13 @@
         <v>30512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,7 +7405,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7399,13 +7417,13 @@
         <v>5377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7414,13 +7432,13 @@
         <v>2650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7429,13 +7447,13 @@
         <v>8027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7468,13 @@
         <v>29684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7465,13 +7483,13 @@
         <v>21091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>577</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -7480,13 +7498,13 @@
         <v>50774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7519,13 @@
         <v>5246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7516,13 +7534,13 @@
         <v>6220</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -7531,13 +7549,13 @@
         <v>11467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>511</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7611,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7605,13 +7623,13 @@
         <v>4855</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>592</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7620,13 +7638,13 @@
         <v>5574</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7635,13 +7653,13 @@
         <v>10429</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7674,13 @@
         <v>27177</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7671,13 +7689,13 @@
         <v>13990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7686,13 +7704,13 @@
         <v>41167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7725,13 @@
         <v>8915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7722,13 +7740,13 @@
         <v>2994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -7737,13 +7755,13 @@
         <v>11909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,7 +7817,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7811,13 +7829,13 @@
         <v>18246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>499</v>
+        <v>619</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>443</v>
+        <v>620</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -7826,13 +7844,13 @@
         <v>24509</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -7841,13 +7859,13 @@
         <v>42755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>351</v>
+        <v>624</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7880,13 @@
         <v>33243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>627</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -7877,13 +7895,13 @@
         <v>30344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -7892,13 +7910,13 @@
         <v>63587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>338</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7931,13 @@
         <v>17537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7928,13 +7946,13 @@
         <v>6849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>639</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -7943,13 +7961,13 @@
         <v>24386</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8035,13 @@
         <v>31082</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -8032,13 +8050,13 @@
         <v>34200</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>114</v>
+        <v>646</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -8047,13 +8065,13 @@
         <v>65282</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8086,13 @@
         <v>64437</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -8083,13 +8101,13 @@
         <v>59164</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -8098,13 +8116,13 @@
         <v>123600</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>648</v>
+        <v>277</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8137,13 @@
         <v>23751</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>315</v>
+        <v>660</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -8134,13 +8152,13 @@
         <v>14623</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="M34" s="7">
         <v>36</v>
@@ -8149,13 +8167,13 @@
         <v>38374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8241,13 @@
         <v>131182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -8238,13 +8256,13 @@
         <v>123712</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>403</v>
+        <v>671</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -8253,13 +8271,13 @@
         <v>254894</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>663</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,13 +8292,13 @@
         <v>272889</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
@@ -8289,13 +8307,13 @@
         <v>207111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="M37" s="7">
         <v>455</v>
@@ -8304,13 +8322,13 @@
         <v>480001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>674</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,13 +8343,13 @@
         <v>94770</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>303</v>
+        <v>682</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="H38" s="7">
         <v>63</v>
@@ -8340,13 +8358,13 @@
         <v>66532</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>678</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>679</v>
+        <v>384</v>
       </c>
       <c r="M38" s="7">
         <v>151</v>
@@ -8355,13 +8373,13 @@
         <v>161302</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>681</v>
+        <v>122</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC29BF5-CBFF-46CB-81F6-D2590277A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{392B0E58-8320-4D8D-ACE0-C8D54643DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44AEDDDD-056F-4D48-8341-BE1B288D4B92}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2D2A1C2-E650-46EC-B593-6B42E882BB42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="682">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>28,96%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>46,08%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>Entre 5 y 1 año</t>
@@ -106,28 +106,28 @@
     <t>52,4%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>46,78%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>Hace más de 5 años</t>
@@ -136,10 +136,10 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>22,59%</t>
@@ -148,13 +148,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>58,65%</t>
+    <t>63,05%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>8,62%</t>
+    <t>8,9%</t>
   </si>
   <si>
     <t>35,72%</t>
@@ -169,1939 +169,1921 @@
     <t>30,26%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>54,54%</t>
   </si>
   <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>51,73%</t>
   </si>
   <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>52,12%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>53,56%</t>
   </si>
   <si>
-    <t>50,08%</t>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
   </si>
   <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>20,87%</t>
+    <t>15,56%</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1225E85-C121-44C9-9968-E87C8E2623CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC2517B-1B41-479D-823E-32B44804C542}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3393,7 +3375,7 @@
         <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3431,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3461,13 +3443,13 @@
         <v>12140</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3476,13 +3458,13 @@
         <v>13270</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3491,10 +3473,10 @@
         <v>25409</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>133</v>
@@ -3873,13 +3855,13 @@
         <v>22447</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -3888,13 +3870,13 @@
         <v>25348</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -3903,13 +3885,13 @@
         <v>47795</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3906,13 @@
         <v>47327</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -3939,13 +3921,13 @@
         <v>36961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -3954,13 +3936,13 @@
         <v>84288</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3957,13 @@
         <v>10538</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -3990,13 +3972,13 @@
         <v>6958</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -4005,13 +3987,13 @@
         <v>17496</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,7 +4049,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4079,13 +4061,13 @@
         <v>33715</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -4094,13 +4076,13 @@
         <v>20934</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4109,13 +4091,13 @@
         <v>54649</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4112,13 @@
         <v>42885</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>28</v>
@@ -4145,13 +4127,13 @@
         <v>28300</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>68</v>
@@ -4160,13 +4142,13 @@
         <v>71185</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4163,13 @@
         <v>13145</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -4196,13 +4178,13 @@
         <v>7665</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -4211,13 +4193,13 @@
         <v>20810</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4267,13 @@
         <v>133766</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>104</v>
@@ -4300,13 +4282,13 @@
         <v>109496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>233</v>
@@ -4315,13 +4297,13 @@
         <v>243263</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4318,13 @@
         <v>218349</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>141</v>
@@ -4351,13 +4333,13 @@
         <v>143085</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>352</v>
@@ -4366,13 +4348,13 @@
         <v>361434</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4369,13 @@
         <v>57212</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>42</v>
@@ -4402,13 +4384,13 @@
         <v>43421</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>99</v>
@@ -4417,13 +4399,13 @@
         <v>100634</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4461,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4503,7 +4485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A3A8F1-4D43-436E-9657-8BECFC84FEAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271FDC6-F4CE-40AD-ACED-6C27E7229008}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4520,7 +4502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4625,39 +4607,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,39 +4652,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,39 +4697,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,39 +4742,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4791,13 @@
         <v>18822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4824,13 +4806,13 @@
         <v>17698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -4839,13 +4821,13 @@
         <v>36521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4842,13 @@
         <v>67899</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -4875,13 +4857,13 @@
         <v>38263</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -4890,13 +4872,13 @@
         <v>106162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4893,13 @@
         <v>18009</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4929,10 +4911,10 @@
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4941,13 +4923,13 @@
         <v>28042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +4997,13 @@
         <v>30640</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -5030,13 +5012,13 @@
         <v>32207</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -5045,13 +5027,13 @@
         <v>62847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5048,13 @@
         <v>16241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5081,13 +5063,13 @@
         <v>10425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -5096,13 +5078,13 @@
         <v>26665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5099,13 @@
         <v>2986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5132,13 +5114,13 @@
         <v>4983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5147,13 +5129,13 @@
         <v>7969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5203,13 @@
         <v>53091</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5236,13 +5218,13 @@
         <v>48064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -5251,13 +5233,13 @@
         <v>101155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5254,13 @@
         <v>64831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5287,13 +5269,13 @@
         <v>62416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -5302,13 +5284,13 @@
         <v>127247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5305,13 @@
         <v>30639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5338,13 +5320,13 @@
         <v>17692</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -5353,13 +5335,13 @@
         <v>48331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5397,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5427,13 +5409,13 @@
         <v>16404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5442,13 +5424,13 @@
         <v>13555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5457,13 +5439,13 @@
         <v>29959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5460,13 @@
         <v>22477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5493,13 +5475,13 @@
         <v>14391</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -5508,13 +5490,13 @@
         <v>36867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5511,13 @@
         <v>10272</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5544,13 +5526,13 @@
         <v>6955</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5559,13 +5541,13 @@
         <v>17228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5615,13 @@
         <v>23921</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5648,13 +5630,13 @@
         <v>18402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5663,13 +5645,13 @@
         <v>42323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5666,13 @@
         <v>17111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5699,13 +5681,13 @@
         <v>13502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5714,13 +5696,13 @@
         <v>30614</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5717,13 @@
         <v>4147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5750,13 +5732,13 @@
         <v>6221</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>382</v>
+        <v>24</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -5765,13 +5747,13 @@
         <v>10367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5821,13 @@
         <v>44867</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -5854,13 +5836,13 @@
         <v>45865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -5869,13 +5851,13 @@
         <v>90732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5872,13 @@
         <v>54706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -5905,13 +5887,13 @@
         <v>34160</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -5920,13 +5902,13 @@
         <v>88866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5923,13 @@
         <v>7945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5956,13 +5938,13 @@
         <v>14435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5971,13 +5953,13 @@
         <v>22381</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6015,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6045,13 +6027,13 @@
         <v>52373</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -6060,13 +6042,13 @@
         <v>46758</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M32" s="7">
         <v>93</v>
@@ -6075,13 +6057,13 @@
         <v>99132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6078,13 @@
         <v>55554</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6111,13 +6093,13 @@
         <v>28917</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>425</v>
+        <v>90</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M33" s="7">
         <v>76</v>
@@ -6126,13 +6108,13 @@
         <v>84471</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>236</v>
+        <v>432</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6129,13 @@
         <v>7336</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>176</v>
+        <v>435</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6162,13 +6144,13 @@
         <v>4041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6177,13 +6159,13 @@
         <v>11377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6233,13 @@
         <v>240118</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -6266,13 +6248,13 @@
         <v>222549</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -6281,13 +6263,13 @@
         <v>462668</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6284,13 @@
         <v>298819</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="H37" s="7">
         <v>184</v>
@@ -6317,13 +6299,13 @@
         <v>202073</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M37" s="7">
         <v>457</v>
@@ -6332,13 +6314,13 @@
         <v>500893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6335,13 @@
         <v>81334</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -6368,13 +6350,13 @@
         <v>64361</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M38" s="7">
         <v>128</v>
@@ -6383,13 +6365,13 @@
         <v>145695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6427,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6469,7 +6451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A2C424-6BC3-47B0-8313-E126187D0768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B6DBD-6BF7-4DB9-B634-2BDBCC177BC2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6486,7 +6468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6593,13 +6575,13 @@
         <v>20774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -6608,13 +6590,13 @@
         <v>16185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6623,13 +6605,13 @@
         <v>36959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6626,13 @@
         <v>34028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6659,13 +6641,13 @@
         <v>22847</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6674,13 +6656,13 @@
         <v>56876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6677,13 @@
         <v>10853</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6710,13 +6692,13 @@
         <v>2851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6725,13 +6707,13 @@
         <v>13704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6781,13 @@
         <v>4401</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>489</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6814,13 +6796,13 @@
         <v>7305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -6829,13 +6811,13 @@
         <v>11706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6832,13 @@
         <v>30443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -6865,13 +6847,13 @@
         <v>19545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>502</v>
+        <v>379</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -6880,13 +6862,13 @@
         <v>49988</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6883,13 @@
         <v>5121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6916,13 +6898,13 @@
         <v>10476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6931,13 +6913,13 @@
         <v>15597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,10 +7005,10 @@
         <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7035,13 +7017,13 @@
         <v>22777</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7038,13 @@
         <v>18435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -7071,13 +7053,13 @@
         <v>18911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -7086,13 +7068,13 @@
         <v>37346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7089,13 @@
         <v>6696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7122,13 +7104,13 @@
         <v>8657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7137,13 +7119,13 @@
         <v>15353</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7193,13 @@
         <v>36278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7226,13 +7208,13 @@
         <v>20681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -7241,13 +7223,13 @@
         <v>56959</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7244,13 @@
         <v>35443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7277,10 +7259,10 @@
         <v>21219</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>554</v>
@@ -7292,13 +7274,13 @@
         <v>56662</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7295,13 @@
         <v>16651</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>559</v>
+        <v>264</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7328,13 +7310,13 @@
         <v>13860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7343,13 +7325,13 @@
         <v>30512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,7 +7387,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7417,13 +7399,13 @@
         <v>5377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7432,13 +7414,13 @@
         <v>2650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7447,13 +7429,13 @@
         <v>8027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7450,13 @@
         <v>29684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7483,13 +7465,13 @@
         <v>21091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>576</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -7498,13 +7480,13 @@
         <v>50774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7501,13 @@
         <v>5246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7534,13 +7516,13 @@
         <v>6220</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>588</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -7549,13 +7531,13 @@
         <v>11467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>591</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7605,13 @@
         <v>4855</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7638,13 +7620,13 @@
         <v>5574</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7653,13 +7635,13 @@
         <v>10429</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>598</v>
+        <v>462</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7656,13 @@
         <v>27177</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7689,13 +7671,13 @@
         <v>13990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7704,13 +7686,13 @@
         <v>41167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7707,13 @@
         <v>8915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7740,13 +7722,13 @@
         <v>2994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -7755,13 +7737,13 @@
         <v>11909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7811,13 @@
         <v>18246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>619</v>
+        <v>502</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>620</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -7844,13 +7826,13 @@
         <v>24509</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -7859,13 +7841,13 @@
         <v>42755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7862,13 @@
         <v>33243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -7895,13 +7877,13 @@
         <v>30344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>298</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -7910,13 +7892,13 @@
         <v>63587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>338</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>632</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7913,13 @@
         <v>17537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>634</v>
+        <v>589</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7946,13 +7928,13 @@
         <v>6849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -7961,13 +7943,13 @@
         <v>24386</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,7 +8005,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8035,13 +8017,13 @@
         <v>31082</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>644</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -8050,13 +8032,13 @@
         <v>34200</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -8065,13 +8047,13 @@
         <v>65282</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>648</v>
+        <v>340</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8068,13 @@
         <v>64437</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -8101,13 +8083,13 @@
         <v>59164</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>653</v>
+        <v>273</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -8116,13 +8098,13 @@
         <v>123600</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>277</v>
+        <v>647</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8119,13 @@
         <v>23751</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>660</v>
+        <v>284</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -8152,13 +8134,13 @@
         <v>14623</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="M34" s="7">
         <v>36</v>
@@ -8167,13 +8149,13 @@
         <v>38374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,13 +8223,13 @@
         <v>131182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -8256,13 +8238,13 @@
         <v>123712</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>671</v>
+        <v>403</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -8271,13 +8253,13 @@
         <v>254894</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>662</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8274,13 @@
         <v>272889</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
@@ -8307,13 +8289,13 @@
         <v>207111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="M37" s="7">
         <v>455</v>
@@ -8322,13 +8304,13 @@
         <v>480001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8325,13 @@
         <v>94770</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="H38" s="7">
         <v>63</v>
@@ -8358,13 +8340,13 @@
         <v>66532</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>196</v>
+        <v>678</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>384</v>
+        <v>679</v>
       </c>
       <c r="M38" s="7">
         <v>151</v>
@@ -8373,13 +8355,13 @@
         <v>161302</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>122</v>
+        <v>681</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,7 +8417,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392B0E58-8320-4D8D-ACE0-C8D54643DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B116AE0-7C6B-4E88-AD79-9E3D21BEE1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2D2A1C2-E650-46EC-B593-6B42E882BB42}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B996EA7-DBA4-4264-9219-D017C695A2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="704">
   <si>
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2007 (Tasa respuesta: 10,51%)</t>
   </si>
@@ -826,7 +826,85 @@
     <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2012 (Tasa respuesta: 15,64%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>17,97%</t>
@@ -982,987 +1060,978 @@
     <t>3,89%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>23,15%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que hace desde que intentó por última vez dejar de fumar en 2016 (Tasa respuesta: 12,91%)</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
     <t>35,38%</t>
   </si>
   <si>
@@ -1979,9 +2048,6 @@
   </si>
   <si>
     <t>65,01%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
   </si>
   <si>
     <t>47,53%</t>
@@ -2495,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC2517B-1B41-479D-823E-32B44804C542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E7787F-1A90-4117-936A-FF139714423F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4485,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271FDC6-F4CE-40AD-ACED-6C27E7229008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EF7D9E-ED12-48CB-B294-CC7F2F3475D0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,43 +4669,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32931</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20298</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>53229</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,43 +4720,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>37333</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30501</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="N5" s="7">
+        <v>67834</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,43 +4771,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18146</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9933</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N6" s="7">
+        <v>28079</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,43 +4822,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="7">
+        <v>88410</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="7">
+        <v>60732</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="N7" s="7">
+        <v>149142</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4881,13 @@
         <v>18822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4806,13 +4896,13 @@
         <v>17698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>34</v>
@@ -4821,13 +4911,13 @@
         <v>36521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4932,13 @@
         <v>67899</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -4857,13 +4947,13 @@
         <v>38263</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7">
         <v>94</v>
@@ -4872,13 +4962,13 @@
         <v>106162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4983,13 @@
         <v>18009</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4914,7 +5004,7 @@
         <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4923,13 +5013,13 @@
         <v>28042</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5087,13 @@
         <v>30640</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -5012,13 +5102,13 @@
         <v>32207</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -5027,13 +5117,13 @@
         <v>62847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5138,13 @@
         <v>16241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5063,13 +5153,13 @@
         <v>10425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -5078,13 +5168,13 @@
         <v>26665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5189,13 @@
         <v>2986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5114,13 +5204,13 @@
         <v>4983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5129,13 +5219,13 @@
         <v>7969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,49 +5287,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>53091</v>
+        <v>20160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>48064</v>
+        <v>27765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N16" s="7">
-        <v>101155</v>
+        <v>47925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5338,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>64831</v>
+        <v>27498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>62416</v>
+        <v>31915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>127247</v>
+        <v>59412</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5389,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>30639</v>
+        <v>12493</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>17692</v>
+        <v>7760</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>48331</v>
+        <v>20253</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,10 +5440,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>148561</v>
+        <v>60151</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5365,10 +5455,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="I19" s="7">
-        <v>128172</v>
+        <v>67440</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5380,10 +5470,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="N19" s="7">
-        <v>276733</v>
+        <v>127590</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5409,13 +5499,13 @@
         <v>16404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5424,13 +5514,13 @@
         <v>13555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5439,13 +5529,13 @@
         <v>29959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5550,13 @@
         <v>22477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -5475,13 +5565,13 @@
         <v>14391</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -5490,13 +5580,13 @@
         <v>36867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5601,13 @@
         <v>10272</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5526,10 +5616,10 @@
         <v>6955</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>240</v>
@@ -5541,13 +5631,13 @@
         <v>17228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5705,13 @@
         <v>23921</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -5630,13 +5720,13 @@
         <v>18402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -5645,13 +5735,13 @@
         <v>42323</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5756,13 @@
         <v>17111</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5681,13 +5771,13 @@
         <v>13502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -5696,10 +5786,10 @@
         <v>30614</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>209</v>
@@ -5717,13 +5807,13 @@
         <v>4147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -5732,10 +5822,10 @@
         <v>6221</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -5747,13 +5837,13 @@
         <v>10367</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5911,13 @@
         <v>44867</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="H28" s="7">
         <v>44</v>
@@ -5836,13 +5926,13 @@
         <v>45865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>395</v>
+        <v>278</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -5851,13 +5941,13 @@
         <v>90732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5962,13 @@
         <v>54706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -5887,13 +5977,13 @@
         <v>34160</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -5902,13 +5992,13 @@
         <v>88866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +6013,13 @@
         <v>7945</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5938,13 +6028,13 @@
         <v>14435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -5953,13 +6043,13 @@
         <v>22381</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6117,13 @@
         <v>52373</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -6042,13 +6132,13 @@
         <v>46758</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="M32" s="7">
         <v>93</v>
@@ -6057,13 +6147,13 @@
         <v>99132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6168,13 @@
         <v>55554</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -6093,13 +6183,13 @@
         <v>28917</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="M33" s="7">
         <v>76</v>
@@ -6108,13 +6198,13 @@
         <v>84471</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6219,13 @@
         <v>7336</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6144,13 +6234,13 @@
         <v>4041</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6159,13 +6249,13 @@
         <v>11377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,16 +6320,16 @@
         <v>227</v>
       </c>
       <c r="D36" s="7">
-        <v>240118</v>
+        <v>240119</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -6248,13 +6338,13 @@
         <v>222549</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -6263,13 +6353,13 @@
         <v>462668</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,16 +6371,16 @@
         <v>273</v>
       </c>
       <c r="D37" s="7">
-        <v>298819</v>
+        <v>298820</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="H37" s="7">
         <v>184</v>
@@ -6299,13 +6389,13 @@
         <v>202073</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>75</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="M37" s="7">
         <v>457</v>
@@ -6314,13 +6404,13 @@
         <v>500893</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,16 +6422,16 @@
         <v>69</v>
       </c>
       <c r="D38" s="7">
-        <v>81334</v>
+        <v>81335</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -6350,13 +6440,13 @@
         <v>64361</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="M38" s="7">
         <v>128</v>
@@ -6365,13 +6455,13 @@
         <v>145695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,7 +6473,7 @@
         <v>569</v>
       </c>
       <c r="D39" s="7">
-        <v>620272</v>
+        <v>620273</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -6451,7 +6541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9B6DBD-6BF7-4DB9-B634-2BDBCC177BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB94D387-161B-4FAB-A8E1-0E1D258585BB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6468,7 +6558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6575,13 +6665,13 @@
         <v>20774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -6590,13 +6680,13 @@
         <v>16185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6605,13 +6695,13 @@
         <v>36959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6716,13 @@
         <v>34028</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -6641,13 +6731,13 @@
         <v>22847</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6656,13 +6746,13 @@
         <v>56876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6767,13 @@
         <v>10853</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6692,13 +6782,13 @@
         <v>2851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -6707,13 +6797,13 @@
         <v>13704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,10 +6874,10 @@
         <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6796,13 +6886,13 @@
         <v>7305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -6811,13 +6901,13 @@
         <v>11706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6922,13 @@
         <v>30443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -6847,13 +6937,13 @@
         <v>19545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -6862,13 +6952,13 @@
         <v>49988</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6973,13 @@
         <v>5121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6904,7 +6994,7 @@
         <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6913,10 +7003,10 @@
         <v>15597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>111</v>
@@ -6987,13 +7077,13 @@
         <v>10170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -7002,13 +7092,13 @@
         <v>12608</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>521</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7017,13 +7107,13 @@
         <v>22777</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7128,13 @@
         <v>18435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -7053,13 +7143,13 @@
         <v>18911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -7071,10 +7161,10 @@
         <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7179,13 @@
         <v>6696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7104,13 +7194,13 @@
         <v>8657</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7119,13 +7209,13 @@
         <v>15353</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7283,13 @@
         <v>36278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -7208,13 +7298,13 @@
         <v>20681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -7223,13 +7313,13 @@
         <v>56959</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7334,13 @@
         <v>35443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7259,13 +7349,13 @@
         <v>21219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -7274,13 +7364,13 @@
         <v>56662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7385,13 @@
         <v>16651</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7310,13 +7400,13 @@
         <v>13860</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7325,13 +7415,13 @@
         <v>30512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7489,13 @@
         <v>5377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7414,13 +7504,13 @@
         <v>2650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7429,13 +7519,13 @@
         <v>8027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7540,13 @@
         <v>29684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7465,13 +7555,13 @@
         <v>21091</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -7480,13 +7570,13 @@
         <v>50774</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7591,13 @@
         <v>5246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7516,13 +7606,13 @@
         <v>6220</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -7531,13 +7621,13 @@
         <v>11467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7695,13 @@
         <v>4855</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7620,13 +7710,13 @@
         <v>5574</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7635,13 +7725,13 @@
         <v>10429</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7746,13 @@
         <v>27177</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -7671,13 +7761,13 @@
         <v>13990</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7686,13 +7776,13 @@
         <v>41167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7797,13 @@
         <v>8915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7722,13 +7812,13 @@
         <v>2994</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -7737,13 +7827,13 @@
         <v>11909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7901,13 @@
         <v>18246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -7826,13 +7916,13 @@
         <v>24509</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="M28" s="7">
         <v>40</v>
@@ -7841,13 +7931,13 @@
         <v>42755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7952,13 @@
         <v>33243</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -7877,13 +7967,13 @@
         <v>30344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -7892,13 +7982,13 @@
         <v>63587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>330</v>
+        <v>648</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +8003,13 @@
         <v>17537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7928,10 +8018,10 @@
         <v>6849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>153</v>
@@ -7943,13 +8033,13 @@
         <v>24386</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8107,13 @@
         <v>31082</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>33</v>
@@ -8032,13 +8122,13 @@
         <v>34200</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -8047,13 +8137,13 @@
         <v>65282</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8158,13 @@
         <v>64437</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="H33" s="7">
         <v>56</v>
@@ -8083,13 +8173,13 @@
         <v>59164</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -8098,13 +8188,13 @@
         <v>123600</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>647</v>
+        <v>279</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8209,13 @@
         <v>23751</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -8134,13 +8224,13 @@
         <v>14623</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="M34" s="7">
         <v>36</v>
@@ -8149,13 +8239,13 @@
         <v>38374</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8313,13 @@
         <v>131182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -8238,13 +8328,13 @@
         <v>123712</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="M36" s="7">
         <v>242</v>
@@ -8253,13 +8343,13 @@
         <v>254894</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,13 +8364,13 @@
         <v>272889</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="H37" s="7">
         <v>201</v>
@@ -8289,13 +8379,13 @@
         <v>207111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="M37" s="7">
         <v>455</v>
@@ -8304,13 +8394,13 @@
         <v>480001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,13 +8415,13 @@
         <v>94770</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="H38" s="7">
         <v>63</v>
@@ -8340,13 +8430,13 @@
         <v>66532</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="M38" s="7">
         <v>151</v>
@@ -8355,13 +8445,13 @@
         <v>161302</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
